--- a/exports_app/templates/excel/ficha_api.xlsx
+++ b/exports_app/templates/excel/ficha_api.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basti\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basti\Escritorio\APIprojectBackend\exports_app\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F0E487-A967-450D-9156-FDDE6E4752CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBA8F5D-41D8-4433-BDCE-092D8A11344D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -569,7 +569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -635,15 +635,6 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -686,6 +677,63 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -698,15 +746,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -735,54 +774,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1154,8 +1145,8 @@
   </sheetPr>
   <dimension ref="A2:K82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1176,57 +1167,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="57"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
@@ -1234,206 +1225,206 @@
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
     </row>
     <row r="12" spans="2:4" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="42"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="43"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="59"/>
     </row>
     <row r="13" spans="2:4" s="3" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
     </row>
     <row r="14" spans="2:4" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
     </row>
     <row r="15" spans="2:4" s="3" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
     </row>
     <row r="16" spans="2:4" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
     </row>
     <row r="17" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
     </row>
     <row r="18" spans="1:6" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="38"/>
+      <c r="D19" s="35"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="37" t="s">
+      <c r="B20" s="68"/>
+      <c r="C20" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="38"/>
+      <c r="D20" s="35"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="37" t="s">
+      <c r="B21" s="68"/>
+      <c r="C21" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="38"/>
+      <c r="D21" s="35"/>
     </row>
     <row r="22" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="37" t="s">
+      <c r="B22" s="68"/>
+      <c r="C22" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="38"/>
+      <c r="D22" s="35"/>
     </row>
     <row r="23" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="37" t="s">
+      <c r="B23" s="69"/>
+      <c r="C23" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="39"/>
+      <c r="D23" s="36"/>
     </row>
     <row r="24" spans="1:6" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="59"/>
     </row>
     <row r="25" spans="1:6" ht="113.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="59"/>
     </row>
     <row r="26" spans="1:6" ht="223.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="59"/>
     </row>
     <row r="27" spans="1:6" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="68"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="48"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="70"/>
+      <c r="D29" s="50"/>
     </row>
     <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="17"/>
     </row>
     <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="72"/>
-      <c r="C31" s="36" t="s">
+      <c r="B31" s="52"/>
+      <c r="C31" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="17"/>
     </row>
     <row r="32" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="72"/>
-      <c r="C32" s="36" t="s">
+      <c r="B32" s="52"/>
+      <c r="C32" s="33" t="s">
         <v>68</v>
       </c>
       <c r="D32" s="17"/>
     </row>
     <row r="33" spans="2:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="72"/>
-      <c r="C33" s="36" t="s">
+      <c r="B33" s="52"/>
+      <c r="C33" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="17"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="72"/>
-      <c r="C34" s="69" t="s">
+      <c r="B34" s="52"/>
+      <c r="C34" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="70"/>
+      <c r="D34" s="50"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="72"/>
-      <c r="C35" s="36" t="s">
+      <c r="B35" s="52"/>
+      <c r="C35" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="35"/>
+      <c r="D35" s="32"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="72"/>
-      <c r="C36" s="36" t="s">
+      <c r="B36" s="52"/>
+      <c r="C36" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="35"/>
+      <c r="D36" s="32"/>
     </row>
     <row r="37" spans="2:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B37" s="72"/>
-      <c r="C37" s="36" t="s">
+      <c r="B37" s="52"/>
+      <c r="C37" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="35"/>
+      <c r="D37" s="32"/>
     </row>
     <row r="38" spans="2:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B38" s="72"/>
-      <c r="C38" s="36" t="s">
+      <c r="B38" s="52"/>
+      <c r="C38" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="35"/>
+      <c r="D38" s="32"/>
     </row>
     <row r="39" spans="2:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B39" s="72"/>
-      <c r="C39" s="36" t="s">
+      <c r="B39" s="52"/>
+      <c r="C39" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="35"/>
+      <c r="D39" s="32"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D40" s="10"/>
@@ -1443,13 +1434,13 @@
       <c r="H40" s="11"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="46"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="39"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
@@ -1473,7 +1464,7 @@
         <v>31</v>
       </c>
       <c r="C43" s="22"/>
-      <c r="D43" s="23"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
       <c r="G43" s="14"/>
@@ -1496,9 +1487,9 @@
         <v>33</v>
       </c>
       <c r="C45" s="22"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
@@ -1510,9 +1501,9 @@
         <v>34</v>
       </c>
       <c r="C46" s="22"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
@@ -1524,9 +1515,9 @@
         <v>35</v>
       </c>
       <c r="C47" s="22"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
@@ -1538,9 +1529,9 @@
         <v>36</v>
       </c>
       <c r="C48" s="22"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
@@ -1551,10 +1542,10 @@
       <c r="B49" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
@@ -1565,10 +1556,10 @@
       <c r="B50" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
@@ -1579,10 +1570,10 @@
       <c r="B51" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
@@ -1602,22 +1593,22 @@
       <c r="K52" s="15"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="44" t="s">
+      <c r="B53" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="46"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="39"/>
     </row>
     <row r="54" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="60" t="s">
+      <c r="B54" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="61"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="62"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="42"/>
     </row>
     <row r="55" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B55" s="13" t="s">
@@ -1640,143 +1631,143 @@
       <c r="B56" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="26"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C57" s="26"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="26"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C61" s="26"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C62" s="26"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="26"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="26"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
     </row>
     <row r="65" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="19"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="27"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="31"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="31"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="31"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="31"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C71" s="31"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="16"/>
@@ -1787,83 +1778,70 @@
       <c r="C73" s="16"/>
     </row>
     <row r="74" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="63" t="s">
+      <c r="B74" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C74" s="64"/>
-      <c r="D74" s="65"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="45"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
     </row>
     <row r="76" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B76" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C76" s="22"/>
-      <c r="D76" s="33"/>
+      <c r="D76" s="30"/>
     </row>
     <row r="77" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B77" s="18" t="s">
         <v>59</v>
       </c>
       <c r="C77" s="22"/>
-      <c r="D77" s="33"/>
+      <c r="D77" s="30"/>
     </row>
     <row r="78" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B78" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C78" s="22"/>
-      <c r="D78" s="33"/>
+      <c r="D78" s="30"/>
     </row>
     <row r="79" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B79" s="18" t="s">
         <v>61</v>
       </c>
       <c r="C79" s="22"/>
-      <c r="D79" s="33"/>
+      <c r="D79" s="30"/>
     </row>
     <row r="80" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B80" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="34"/>
-      <c r="D80" s="33"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="30"/>
     </row>
     <row r="81" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B81" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C81" s="22"/>
-      <c r="D81" s="33"/>
+      <c r="D81" s="30"/>
     </row>
     <row r="82" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B82" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C82" s="22"/>
-      <c r="D82" s="33"/>
+      <c r="D82" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B30:B39"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C9:D9"/>
@@ -1878,6 +1856,19 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="14" scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -1886,21 +1877,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100056946F4E712244384A19B46923A1988" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8d96a017858ca9ace5c20717ce6ae603">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4dbcf79e-b260-42db-8965-d109689dbba8" xmlns:ns3="f62aef68-9c38-4a4b-b5bc-2e379edca237" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8480f1b66e8e1dd3b7ae5d891f5a93e1" ns2:_="" ns3:_="">
     <xsd:import namespace="4dbcf79e-b260-42db-8965-d109689dbba8"/>
@@ -2083,24 +2059,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C0EAC96-ADE7-4FCF-BE08-D032CB1A4FD7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{846FD27D-0E63-4A05-BA0A-890FE40230E6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B47041-7B0D-4615-8F14-585AA75D3F6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2117,4 +2091,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{846FD27D-0E63-4A05-BA0A-890FE40230E6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C0EAC96-ADE7-4FCF-BE08-D032CB1A4FD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>